--- a/medicine/Psychotrope/Terroir_viticole/Terroir_viticole.xlsx
+++ b/medicine/Psychotrope/Terroir_viticole/Terroir_viticole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un terroir viticole est un groupe de parcelles agricoles. Elles doivent se situer dans la même région, correspondre à même type de sol tant au point de vue géologique qu'orographique, avoir des conditions climatiques identiques, et ses vignes être conduites avec les mêmes techniques viticoles. Ces conditions, qui définissent un terroir, contribuent à donner un caractère unique, une « typicité » aux raisins récoltés, puis au vin qui en sera issu.
-La spécificité d'un terroir est tributaire de caractéristiques locales telles que la géomorphologie (pente et exposition), la proximité d’une rivière ou d’un plan d’eau qui vont agir pour créer des micro-climats. La qualité du vin, liée au choix des cépages, en dépend. Toute variation du climat a des répercussions sur les caractéristiques du vin et est le fondement même des grands ou des petits millésimes[1].
+La spécificité d'un terroir est tributaire de caractéristiques locales telles que la géomorphologie (pente et exposition), la proximité d’une rivière ou d’un plan d’eau qui vont agir pour créer des micro-climats. La qualité du vin, liée au choix des cépages, en dépend. Toute variation du climat a des répercussions sur les caractéristiques du vin et est le fondement même des grands ou des petits millésimes.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La délimitation des terroirs est le fruit de siècles d'observations des vignes. Elle était déjà évoquée dans l'Antiquité : des amphores découvertes dans des tombes des pharaons portent le sceau de la région, du millésime et du vinificateur.
-Au Moyen Âge, le vignoble de la côte d'Or dans le duché de Bourgogne a été cultivé au profit de quelques abbayes bénédictines et cisterciennes. Une légende fait des moines les auteurs d'une étude empirique des différents crus, le folklore vineux des années 1920-1930 les présentant comme goûtant la terre[2].
+Au Moyen Âge, le vignoble de la côte d'Or dans le duché de Bourgogne a été cultivé au profit de quelques abbayes bénédictines et cisterciennes. Une légende fait des moines les auteurs d'une étude empirique des différents crus, le folklore vineux des années 1920-1930 les présentant comme goûtant la terre.
 Depuis la toute fin du XXe siècle, la notion de « vin de terroir » est mise en opposition aux « vins de cépages », les tenant de chacun des camps décriant l'adversaire.
 </t>
         </is>
@@ -545,13 +559,15 @@
           <t>Éléments de définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors que les experts du vin sont en désaccord quant à l'« exacte » définition du terroir, ils s'accordent cependant sur l'influence des éléments naturels, qui sont généralement considérés comme indépendants de la volonté de l'homme (exemple : climat et microclimat, type de sol, topographie). On peut citer le canton de Genève en Suisse (1 400 hectares) qui fait preuve d'innovation en mettant à disposition des cartes interactives en ligne[3] comprenant notamment des données sur le climat, l'encépagement, la topographie, la pédologie des sols, les systèmes de conduites, etc., afin de mieux comprendre les interactions complexes de ces composantes du terroir.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que les experts du vin sont en désaccord quant à l'« exacte » définition du terroir, ils s'accordent cependant sur l'influence des éléments naturels, qui sont généralement considérés comme indépendants de la volonté de l'homme (exemple : climat et microclimat, type de sol, topographie). On peut citer le canton de Genève en Suisse (1 400 hectares) qui fait preuve d'innovation en mettant à disposition des cartes interactives en ligne comprenant notamment des données sur le climat, l'encépagement, la topographie, la pédologie des sols, les systèmes de conduites, etc., afin de mieux comprendre les interactions complexes de ces composantes du terroir.
 L'action du climat sur le terroir peut généralement être définie selon trois échelles spatiales.
 Le macroclimat ; il concerne une grande superficie homogène (par exemple, la côte de Nuits),
 le mésoclimat ; il se concentre sur une plus petite partie (tel que la commune de Gevrey-Chambertin)
-le microclimat ; il est encore plus local, concernant un versant, une vallée plus humide (comme celle du Ciron qui avec la Garonne favorise l'apparition de la pourriture noble (Botrytis cinerea) qui fait la qualité du Sauternes (AOC) et du Barsac (AOC) et ses brouillards et brumes d'automne qui contribuent à la spécificité du Sauternais [4]) ou même le niveau d'une parcelle (comme pour le grand cru du Chambertin »).
+le microclimat ; il est encore plus local, concernant un versant, une vallée plus humide (comme celle du Ciron qui avec la Garonne favorise l'apparition de la pourriture noble (Botrytis cinerea) qui fait la qualité du Sauternes (AOC) et du Barsac (AOC) et ses brouillards et brumes d'automne qui contribuent à la spécificité du Sauternais ) ou même le niveau d'une parcelle (comme pour le grand cru du Chambertin »).
 Le type de sol se rapporte à la fois à la composition, comme la proportion d'argiles, de sables ou de limons, à la nature pédologique du sol et donc à sa fertilité, mais aussi au drainage et à la capacité d'accumuler et de conserver la chaleur.
 Enfin, la géomorphologie définit les caractéristiques naturelles du paysage, comme les reliefs, les vallées et les cours d'eau. La géomorphologie d'un lieu influe sur le terroir via le climat qu'elle favorise ou non, l'altitude, l'orientation et la pente.
 			Johannisberg, Rheingau, Allemagne.
@@ -567,9 +583,6 @@
 			Carte des différentes appellations du vignoble de Provence.
 			Cartographie des différents vignobles australiens.
 			Implantation des différents terroirs viticoles en Slovaquie.
-Définition de l'OIV
-L'Organisation internationale de la vigne et du vin (OIV) a adopté une résolution officielle du concept de terroir lors de son congrès annuel en juin 2010 à Tbilissi en Géorgie.
-« Le terroir vitivinicole est un concept qui se réfère à un espace sur lequel se développe un savoir collectif des interactions entre un milieu physique et biologique identifiable et les pratiques vitivinicoles appliquées, qui confèrent des caractéristiques distinctives aux produits originaires de cet espace »[5].
 </t>
         </is>
       </c>
@@ -595,13 +608,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Éléments de définition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Définition de l'OIV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Organisation internationale de la vigne et du vin (OIV) a adopté une résolution officielle du concept de terroir lors de son congrès annuel en juin 2010 à Tbilissi en Géorgie.
+« Le terroir vitivinicole est un concept qui se réfère à un espace sur lequel se développe un savoir collectif des interactions entre un milieu physique et biologique identifiable et les pratiques vitivinicoles appliquées, qui confèrent des caractéristiques distinctives aux produits originaires de cet espace ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terroir_viticole</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terroir_viticole</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Échelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Certains auteurs distinguent différentes échelles de terroir.
-Par exemple Philippe Prévost en 2011 distingue pour les terroirs viticoles[6] :
+Par exemple Philippe Prévost en 2011 distingue pour les terroirs viticoles :
 le terroir de base ( échelle de la parcelle culturale, très liée au contexte écologique local),
 l’unité de terroir viticole (échelle de l'exploitation viticole, plus liée à la dimension agronomique) ;
 l’agroterroir (échelle du bassin de production ; plutôt lié à la dimension économique) ;
@@ -609,31 +662,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Terroir_viticole</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Terroir_viticole</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Découverte de nouveaux terroirs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut se demander - notamment dans un contexte de changement climatique et de réchauffement, et de changements globaux si de nouveaux grands terroirs peuvent encore être découverts ou apparaître.
 En dehors de l'Europe, les vignobles sont extrêmement jeunes et les repérages balbutiants. On commence seulement à saisir la potentialité de certaines régions comme la Californie. En Europe aussi, étonnamment, on pourrait en découvrir ou en révéler de nouveaux. L'Espagne s'est donné l'ambition et les moyens de le faire. En France, toutes les régions viticoles réputées sont situées à proximité de grandes voies de communication. Mais qu'en est-il dans les coteaux plus reculés et qui n'ont peut-être jamais été plantés de vignes ? Certains vignerons se sont lancés dans l'aventure en replantant des vignobles oubliés ou en s'excluant volontairement de leur AOC pour vinifier des vins sous IGP ou vin de table dont les prix peuvent parfois égaler ceux d'excellents bordeaux ou bourgognes. Ainsi, l'INAO a déclaré l'année 2005 comme « Année des terroirs » et a soutenu l'organisation de conférences et de débats, en considérant que, nullement obsolète ou dépassée par les pratiques œnologiques, la notion de terroir alimente plus que jamais les débats autour de l'avenir du vin. L'INAO a publié un livre : Le Goût de l'origine.
@@ -646,31 +701,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Terroir_viticole</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Terroir_viticole</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Citations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>« Le vin est le fils du soleil et de la terre, mais il a eu le travail comme accoucheur. » Paul Claudel, Discours prononcé lors de l'inauguration de la Foire Internationale de Bruxelles, le 2 mai 1935, in Proses et poésies diverses, éditions Gallimard, Paris, 1987, p. 185.
 « On ne parvient à l'universel qu'à partir de l'ultralocal » Salvador Dalí.
